--- a/finches_data.xlsx
+++ b/finches_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\su7849xi\Documents\GitHub\BIOL115L-MSUM.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\su7849xi\Documents\GitHub\BIOL115L-MSUM.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="18">
   <si>
     <t>Geospiza fortis</t>
   </si>
@@ -65,6 +65,15 @@
   <si>
     <t>beak_width</t>
   </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>survived</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +123,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,9 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -532,15 +549,16 @@
     <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6"/>
+    <col min="7" max="7" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -556,26 +574,29 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -591,26 +612,29 @@
       <c r="E2" s="1">
         <v>1977</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
         <v>14.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>67</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>18</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -626,26 +650,29 @@
       <c r="E3" s="1">
         <v>1977</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
         <v>13.5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>66</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>18.3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>9.5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>7.5</v>
       </c>
       <c r="K3" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>276</v>
       </c>
@@ -661,26 +688,29 @@
       <c r="E4" s="1">
         <v>1977</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
         <v>16.440000000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>64.19</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>18.47</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>9.93</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>8</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>7.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>278</v>
       </c>
@@ -696,26 +726,29 @@
       <c r="E5" s="1">
         <v>1977</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
         <v>18.54</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>67.19</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>19.27</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>11.13</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>10.6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>283</v>
       </c>
@@ -731,26 +764,29 @@
       <c r="E6" s="1">
         <v>1977</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
         <v>17.440000000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>70.19</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>19.27</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>12.13</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>11.2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>288</v>
       </c>
@@ -766,26 +802,29 @@
       <c r="E7" s="1">
         <v>1977</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
         <v>16.34</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>71.19</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>20.27</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>10.63</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>9.1</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>293</v>
       </c>
@@ -801,26 +840,29 @@
       <c r="E8" s="1">
         <v>1977</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
         <v>15.74</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>67.19</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>17.57</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>9.93</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>9.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>294</v>
       </c>
@@ -836,26 +878,29 @@
       <c r="E9" s="1">
         <v>1977</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
         <v>16.84</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>68.19</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>18.170000000000002</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>11.33</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>10.5</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>298</v>
       </c>
@@ -871,26 +916,29 @@
       <c r="E10" s="1">
         <v>1977</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
         <v>15.54</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>68.19</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>18.57</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>9.93</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>8.4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>307</v>
       </c>
@@ -906,26 +954,29 @@
       <c r="E11" s="1">
         <v>1977</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
         <v>17.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>70</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>20</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>11.1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>8.6</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>8.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>311</v>
       </c>
@@ -941,26 +992,29 @@
       <c r="E12" s="1">
         <v>1977</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
         <v>15</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>67</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>10.8</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>315</v>
       </c>
@@ -976,26 +1030,29 @@
       <c r="E13" s="1">
         <v>1977</v>
       </c>
-      <c r="F13" s="2">
-        <v>17</v>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G13" s="2">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2">
         <v>70</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>321</v>
       </c>
@@ -1011,26 +1068,29 @@
       <c r="E14" s="1">
         <v>1977</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
         <v>15</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>66</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>10.6</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>8.5</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>342</v>
       </c>
@@ -1046,26 +1106,29 @@
       <c r="E15" s="1">
         <v>1977</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2">
         <v>15</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>66</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>9.6</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>8</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>343</v>
       </c>
@@ -1081,26 +1144,29 @@
       <c r="E16" s="1">
         <v>1977</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
         <v>15</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>67</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>18</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>10.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>345</v>
       </c>
@@ -1116,26 +1182,29 @@
       <c r="E17" s="1">
         <v>1977</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2">
         <v>16.5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>67</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>9.9</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>8.4</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>346</v>
       </c>
@@ -1151,26 +1220,29 @@
       <c r="E18" s="1">
         <v>1977</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
         <v>13</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>64</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>9.6</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>7.9</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>7.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>347</v>
       </c>
@@ -1186,26 +1258,29 @@
       <c r="E19" s="1">
         <v>1977</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2">
         <v>71</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>10.7</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>8.4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>352</v>
       </c>
@@ -1221,26 +1296,29 @@
       <c r="E20" s="1">
         <v>1977</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2">
         <v>13.5</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>65</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>7.7</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>356</v>
       </c>
@@ -1256,26 +1334,29 @@
       <c r="E21" s="1">
         <v>1977</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2">
         <v>69</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>18.5</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>10.1</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>8.5</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>413</v>
       </c>
@@ -1291,26 +1372,29 @@
       <c r="E22" s="1">
         <v>1977</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
         <v>14</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>65</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>7.9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>420</v>
       </c>
@@ -1326,26 +1410,29 @@
       <c r="E23" s="1">
         <v>1977</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2">
         <v>15</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>65</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>19.8</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>11</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>422</v>
       </c>
@@ -1361,26 +1448,29 @@
       <c r="E24" s="1">
         <v>1977</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2">
         <v>19</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>70</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>11</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>10.3</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>428</v>
       </c>
@@ -1396,26 +1486,29 @@
       <c r="E25" s="1">
         <v>1977</v>
       </c>
-      <c r="F25" s="2">
-        <v>17</v>
+      <c r="F25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G25" s="2">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2">
         <v>72</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>11.6</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>452</v>
       </c>
@@ -1431,26 +1524,29 @@
       <c r="E26" s="1">
         <v>1977</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2">
         <v>15</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>68</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>20</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>10.5</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>8.9</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>456</v>
       </c>
@@ -1466,26 +1562,29 @@
       <c r="E27" s="1">
         <v>1977</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
         <v>16.5</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>18.5</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>9.6</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>457</v>
       </c>
@@ -1501,26 +1600,29 @@
       <c r="E28" s="1">
         <v>1977</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
         <v>14.75</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>64.2</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>17.05</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>7.85</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>7.55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>458</v>
       </c>
@@ -1536,26 +1638,29 @@
       <c r="E29" s="1">
         <v>1977</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2">
         <v>73</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>11.1</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>9.6</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>461</v>
       </c>
@@ -1571,26 +1676,29 @@
       <c r="E30" s="1">
         <v>1977</v>
       </c>
-      <c r="F30" s="2">
-        <v>17</v>
+      <c r="F30" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G30" s="2">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2">
         <v>68</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>20</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>11.1</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>462</v>
       </c>
@@ -1606,26 +1714,29 @@
       <c r="E31" s="1">
         <v>1977</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2">
         <v>15</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>68</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>468</v>
       </c>
@@ -1641,26 +1752,29 @@
       <c r="E32" s="1">
         <v>1977</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" s="2">
         <v>68</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>19</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>10.8</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>9</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>503</v>
       </c>
@@ -1676,26 +1790,29 @@
       <c r="E33" s="1">
         <v>1977</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2">
         <v>14.5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>65</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>10</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>9.1</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>8.6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>506</v>
       </c>
@@ -1711,26 +1828,29 @@
       <c r="E34" s="1">
         <v>1977</v>
       </c>
-      <c r="F34" s="2">
-        <v>17</v>
+      <c r="F34" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="2">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2">
         <v>69</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>11.1</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>507</v>
       </c>
@@ -1746,26 +1866,29 @@
       <c r="E35" s="1">
         <v>1977</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2">
         <v>70</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>19</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>10.3</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>509</v>
       </c>
@@ -1781,26 +1904,29 @@
       <c r="E36" s="1">
         <v>1977</v>
       </c>
-      <c r="F36" s="2">
-        <v>17</v>
+      <c r="F36" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G36" s="2">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2">
         <v>70</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>20</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>11.1</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>511</v>
       </c>
@@ -1816,26 +1942,29 @@
       <c r="E37" s="1">
         <v>1977</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2">
         <v>14.5</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>66</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>10.5</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>512</v>
       </c>
@@ -1851,26 +1980,29 @@
       <c r="E38" s="1">
         <v>1977</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2">
         <v>15.5</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>67</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>20.3</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>11</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>9.4</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>519</v>
       </c>
@@ -1886,26 +2018,29 @@
       <c r="E39" s="1">
         <v>1977</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2">
         <v>14.5</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>67</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>10</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <v>7.9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>522</v>
       </c>
@@ -1921,26 +2056,29 @@
       <c r="E40" s="1">
         <v>1977</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2">
         <v>15.5</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>66</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>18.2</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>10.3</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>8.4</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>561</v>
       </c>
@@ -1956,26 +2094,29 @@
       <c r="E41" s="1">
         <v>1977</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2">
         <v>16.5</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>70</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>20</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>11.7</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>564</v>
       </c>
@@ -1991,26 +2132,29 @@
       <c r="E42" s="1">
         <v>1977</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2">
         <v>14</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>66</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>18.8</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>605</v>
       </c>
@@ -2026,26 +2170,29 @@
       <c r="E43" s="1">
         <v>1977</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2">
         <v>15.5</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>71</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>10.9</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>609</v>
       </c>
@@ -2061,26 +2208,29 @@
       <c r="E44" s="1">
         <v>1977</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2">
         <v>16.5</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>69</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>11.9</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>10.5</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>610</v>
       </c>
@@ -2096,26 +2246,29 @@
       <c r="E45" s="1">
         <v>1977</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2">
         <v>14</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>66</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>18.8</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>9</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>611</v>
       </c>
@@ -2131,26 +2284,29 @@
       <c r="E46" s="1">
         <v>1977</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" s="2">
         <v>66</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <v>10.5</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>619</v>
       </c>
@@ -2166,26 +2322,29 @@
       <c r="E47" s="1">
         <v>1977</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2">
         <v>14</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>65</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>18</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <v>10.5</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>621</v>
       </c>
@@ -2201,26 +2360,29 @@
       <c r="E48" s="1">
         <v>1977</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2">
         <v>15.5</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>67</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>18.5</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>7.6</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>674</v>
       </c>
@@ -2236,26 +2398,29 @@
       <c r="E49" s="1">
         <v>1977</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2">
         <v>18.5</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>70</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>20.5</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>11.8</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>10.5</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>676</v>
       </c>
@@ -2271,26 +2436,29 @@
       <c r="E50" s="1">
         <v>1977</v>
       </c>
-      <c r="F50" s="2">
-        <v>17</v>
+      <c r="F50" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G50" s="2">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2">
         <v>72</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>20</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>11</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>687</v>
       </c>
@@ -2306,26 +2474,29 @@
       <c r="E51" s="1">
         <v>1977</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="2">
         <v>14</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>66</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <v>10.3</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>8.6</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>309</v>
       </c>
@@ -2341,26 +2512,29 @@
       <c r="E52" s="1">
         <v>1978</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2">
         <v>18</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>71</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>20.2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>11.5</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>560</v>
       </c>
@@ -2376,26 +2550,29 @@
       <c r="E53" s="1">
         <v>1978</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2">
         <v>14</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>67</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>8.5</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>572</v>
       </c>
@@ -2411,26 +2588,29 @@
       <c r="E54" s="1">
         <v>1978</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="2">
         <v>18</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>70</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>20.2</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <v>12.1</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>10.3</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>618</v>
       </c>
@@ -2446,26 +2626,29 @@
       <c r="E55" s="1">
         <v>1978</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="2">
         <v>17.5</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>68</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>20.7</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <v>11.6</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>9.9</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>623</v>
       </c>
@@ -2481,26 +2664,29 @@
       <c r="E56" s="1">
         <v>1978</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="2">
         <v>15</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>67</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>19</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <v>10.3</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>673</v>
       </c>
@@ -2516,26 +2702,29 @@
       <c r="E57" s="1">
         <v>1978</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2">
         <v>18</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>72</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>19</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <v>11.4</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>10.1</v>
       </c>
-      <c r="K57" s="2">
+      <c r="L57" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>685</v>
       </c>
@@ -2551,26 +2740,29 @@
       <c r="E58" s="1">
         <v>1978</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="2">
         <v>14.5</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>67</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>18</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>891</v>
       </c>
@@ -2586,26 +2778,29 @@
       <c r="E59" s="1">
         <v>1978</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2">
         <v>15</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>65</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="I59" s="2">
+      <c r="J59" s="2">
         <v>9.9</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>8</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L59" s="2">
         <v>7.9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>931</v>
       </c>
@@ -2621,26 +2816,29 @@
       <c r="E60" s="1">
         <v>1978</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="2">
         <v>14.5</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>65</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>8.9</v>
       </c>
-      <c r="K60" s="2">
+      <c r="L60" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>943</v>
       </c>
@@ -2656,26 +2854,29 @@
       <c r="E61" s="1">
         <v>1978</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2">
         <v>15</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>66</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>19.3</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <v>10.3</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>9.1</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1452</v>
       </c>
@@ -2691,26 +2892,29 @@
       <c r="E62" s="1">
         <v>1978</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2">
         <v>16.239999999999998</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>68.19</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>18.47</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <v>11.43</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1477</v>
       </c>
@@ -2726,26 +2930,29 @@
       <c r="E63" s="1">
         <v>1978</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="2">
         <v>17.34</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>70.19</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>20.57</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <v>11.93</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>10.1</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L63" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1528</v>
       </c>
@@ -2761,26 +2968,29 @@
       <c r="E64" s="1">
         <v>1978</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="2">
         <v>17.09</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>68.19</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>19.32</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <v>11.03</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>8.5500000000000007</v>
       </c>
-      <c r="K64" s="2">
+      <c r="L64" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1587</v>
       </c>
@@ -2796,26 +3006,29 @@
       <c r="E65" s="1">
         <v>1978</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="2">
         <v>17.64</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>72.19</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>20.57</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J65" s="2">
         <v>10.63</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K65" s="2">
+      <c r="L65" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1592</v>
       </c>
@@ -2831,26 +3044,29 @@
       <c r="E66" s="1">
         <v>1978</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="2">
         <v>17.239999999999998</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>71.19</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>18.87</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J66" s="2">
         <v>10.83</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>10</v>
       </c>
-      <c r="K66" s="2">
+      <c r="L66" s="2">
         <v>9.6</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1599</v>
       </c>
@@ -2866,26 +3082,29 @@
       <c r="E67" s="1">
         <v>1978</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2">
         <v>18.04</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>72.19</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="2">
         <v>19.77</v>
       </c>
-      <c r="I67" s="2">
+      <c r="J67" s="2">
         <v>11.23</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>10.7</v>
       </c>
-      <c r="K67" s="2">
+      <c r="L67" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1635</v>
       </c>
@@ -2901,26 +3120,29 @@
       <c r="E68" s="1">
         <v>1978</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="2">
         <v>15.84</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>68.19</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>20.07</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J68" s="2">
         <v>11.23</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>9.1</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L68" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1643</v>
       </c>
@@ -2936,26 +3158,29 @@
       <c r="E69" s="1">
         <v>1978</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="2">
         <v>15.24</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>65.19</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>20.170000000000002</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J69" s="2">
         <v>10.23</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K69" s="2">
+      <c r="L69" s="2">
         <v>8.4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1850</v>
       </c>
@@ -2971,26 +3196,29 @@
       <c r="E70" s="1">
         <v>1978</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="2">
         <v>16.14</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>66.19</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>19.07</v>
       </c>
-      <c r="I70" s="2">
+      <c r="J70" s="2">
         <v>11.63</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>10.4</v>
       </c>
-      <c r="K70" s="2">
+      <c r="L70" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1861</v>
       </c>
@@ -3006,26 +3234,29 @@
       <c r="E71" s="1">
         <v>1978</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>72.69</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>19.32</v>
       </c>
-      <c r="I71" s="2">
+      <c r="J71" s="2">
         <v>12.23</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>10.7</v>
       </c>
-      <c r="K71" s="2">
+      <c r="L71" s="2">
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1884</v>
       </c>
@@ -3041,26 +3272,29 @@
       <c r="E72" s="1">
         <v>1978</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2">
         <v>16.239999999999998</v>
       </c>
-      <c r="G72" s="2">
+      <c r="H72" s="2">
         <v>67.69</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>17.97</v>
       </c>
-      <c r="I72" s="2">
+      <c r="J72" s="2">
         <v>11.03</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>9.15</v>
       </c>
-      <c r="K72" s="2">
+      <c r="L72" s="2">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1919</v>
       </c>
@@ -3076,26 +3310,29 @@
       <c r="E73" s="1">
         <v>1978</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2">
         <v>21.24</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2">
         <v>72.19</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="2">
         <v>19.47</v>
       </c>
-      <c r="I73" s="2">
+      <c r="J73" s="2">
         <v>11.13</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>11.2</v>
       </c>
-      <c r="K73" s="2">
+      <c r="L73" s="2">
         <v>9.4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2206</v>
       </c>
@@ -3111,26 +3348,29 @@
       <c r="E74" s="1">
         <v>1978</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2">
         <v>17.440000000000001</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>72.19</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="2">
         <v>20.07</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="2">
         <v>10.93</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <v>10.5</v>
       </c>
-      <c r="K74" s="2">
+      <c r="L74" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2211</v>
       </c>
@@ -3146,26 +3386,29 @@
       <c r="E75" s="1">
         <v>1978</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2">
         <v>16.940000000000001</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H75" s="2">
         <v>70.19</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="2">
         <v>19.27</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J75" s="2">
         <v>11.03</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K75" s="2">
+      <c r="L75" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2226</v>
       </c>
@@ -3181,26 +3424,29 @@
       <c r="E76" s="1">
         <v>1978</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2">
         <v>14.74</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>65.19</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>18.27</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <v>10.23</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <v>8.9</v>
       </c>
-      <c r="K76" s="2">
+      <c r="L76" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2887</v>
       </c>
@@ -3216,26 +3462,29 @@
       <c r="E77" s="1">
         <v>1978</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2">
         <v>17.34</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>69.19</v>
       </c>
-      <c r="H77" s="2">
+      <c r="I77" s="2">
         <v>19.07</v>
       </c>
-      <c r="I77" s="2">
+      <c r="J77" s="2">
         <v>11.33</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
         <v>10.1</v>
       </c>
-      <c r="K77" s="2">
+      <c r="L77" s="2">
         <v>9.4</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>8136</v>
       </c>
@@ -3251,26 +3500,29 @@
       <c r="E78" s="1">
         <v>1978</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="2">
         <v>15.54</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>68.19</v>
       </c>
-      <c r="H78" s="2">
+      <c r="I78" s="2">
         <v>18.07</v>
       </c>
-      <c r="I78" s="2">
+      <c r="J78" s="2">
         <v>10.029999999999999</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
         <v>8.9</v>
       </c>
-      <c r="K78" s="2">
+      <c r="L78" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>616</v>
       </c>
@@ -3286,26 +3538,29 @@
       <c r="E79" s="1">
         <v>1979</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2">
         <v>19</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>70</v>
       </c>
-      <c r="H79" s="2">
+      <c r="I79" s="2">
         <v>20</v>
       </c>
-      <c r="I79" s="2">
+      <c r="J79" s="2">
         <v>10.7</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <v>9.6</v>
       </c>
-      <c r="K79" s="2">
+      <c r="L79" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1248</v>
       </c>
@@ -3321,26 +3576,29 @@
       <c r="E80" s="1">
         <v>1979</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="2">
         <v>15.4</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>66</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>19.5</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>10</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>8.5</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2210</v>
       </c>
@@ -3356,26 +3614,29 @@
       <c r="E81" s="1">
         <v>1979</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="2">
         <v>16.34</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>68.010000000000005</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>18.96</v>
       </c>
-      <c r="I81" s="2">
+      <c r="J81" s="2">
         <v>12.43</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
         <v>10.08</v>
       </c>
-      <c r="K81" s="2">
+      <c r="L81" s="2">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2242</v>
       </c>
@@ -3391,26 +3652,29 @@
       <c r="E82" s="1">
         <v>1979</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="2">
         <v>15.41</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>72.94</v>
       </c>
-      <c r="H82" s="2">
+      <c r="I82" s="2">
         <v>18.260000000000002</v>
       </c>
-      <c r="I82" s="2">
+      <c r="J82" s="2">
         <v>11.09</v>
       </c>
-      <c r="J82" s="2">
+      <c r="K82" s="2">
         <v>9.4499999999999993</v>
       </c>
-      <c r="K82" s="2">
+      <c r="L82" s="2">
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2939</v>
       </c>
@@ -3426,26 +3690,29 @@
       <c r="E83" s="1">
         <v>1979</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="2">
         <v>15.37</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>67.95</v>
       </c>
-      <c r="H83" s="2">
+      <c r="I83" s="2">
         <v>19.41</v>
       </c>
-      <c r="I83" s="2">
+      <c r="J83" s="2">
         <v>9.6300000000000008</v>
       </c>
-      <c r="J83" s="2">
+      <c r="K83" s="2">
         <v>8.31</v>
       </c>
-      <c r="K83" s="2">
+      <c r="L83" s="2">
         <v>7.72</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>354</v>
       </c>
@@ -3461,26 +3728,29 @@
       <c r="E84" s="1">
         <v>1980</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2">
         <v>17.5</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <v>67</v>
       </c>
-      <c r="H84" s="2">
+      <c r="I84" s="2">
         <v>20.3</v>
       </c>
-      <c r="I84" s="2">
+      <c r="J84" s="2">
         <v>11.6</v>
       </c>
-      <c r="J84" s="2">
+      <c r="K84" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K84" s="2">
+      <c r="L84" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>678</v>
       </c>
@@ -3496,26 +3766,29 @@
       <c r="E85" s="1">
         <v>1980</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="2">
         <v>16.5</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>71</v>
       </c>
-      <c r="H85" s="2">
+      <c r="I85" s="2">
         <v>18.2</v>
       </c>
-      <c r="I85" s="2">
+      <c r="J85" s="2">
         <v>11.3</v>
       </c>
-      <c r="J85" s="2">
+      <c r="K85" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K85" s="2">
+      <c r="L85" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1418</v>
       </c>
@@ -3531,26 +3804,29 @@
       <c r="E86" s="1">
         <v>1980</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="2">
         <v>17.940000000000001</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>71.010000000000005</v>
       </c>
-      <c r="H86" s="2">
+      <c r="I86" s="2">
         <v>18.760000000000002</v>
       </c>
-      <c r="I86" s="2">
+      <c r="J86" s="2">
         <v>12.13</v>
       </c>
-      <c r="J86" s="2">
+      <c r="K86" s="2">
         <v>10.38</v>
       </c>
-      <c r="K86" s="2">
+      <c r="L86" s="2">
         <v>9.24</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1426</v>
       </c>
@@ -3566,26 +3842,29 @@
       <c r="E87" s="1">
         <v>1980</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="2">
         <v>21.22</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <v>71.45</v>
       </c>
-      <c r="H87" s="2">
+      <c r="I87" s="2">
         <v>21.01</v>
       </c>
-      <c r="I87" s="2">
+      <c r="J87" s="2">
         <v>12.03</v>
       </c>
-      <c r="J87" s="2">
+      <c r="K87" s="2">
         <v>10.61</v>
       </c>
-      <c r="K87" s="2">
+      <c r="L87" s="2">
         <v>10.07</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1527</v>
       </c>
@@ -3601,26 +3880,29 @@
       <c r="E88" s="1">
         <v>1980</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="2">
         <v>17.04</v>
       </c>
-      <c r="G88" s="2">
+      <c r="H88" s="2">
         <v>68.010000000000005</v>
       </c>
-      <c r="H88" s="2">
+      <c r="I88" s="2">
         <v>18.46</v>
       </c>
-      <c r="I88" s="2">
+      <c r="J88" s="2">
         <v>10.63</v>
       </c>
-      <c r="J88" s="2">
+      <c r="K88" s="2">
         <v>8.3800000000000008</v>
       </c>
-      <c r="K88" s="2">
+      <c r="L88" s="2">
         <v>8.14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1659</v>
       </c>
@@ -3636,26 +3918,29 @@
       <c r="E89" s="1">
         <v>1980</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2">
         <v>17.739999999999998</v>
       </c>
-      <c r="G89" s="2">
+      <c r="H89" s="2">
         <v>71.010000000000005</v>
       </c>
-      <c r="H89" s="2">
+      <c r="I89" s="2">
         <v>19.16</v>
       </c>
-      <c r="I89" s="2">
+      <c r="J89" s="2">
         <v>11.83</v>
       </c>
-      <c r="J89" s="2">
+      <c r="K89" s="2">
         <v>10.78</v>
       </c>
-      <c r="K89" s="2">
+      <c r="L89" s="2">
         <v>9.34</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2244</v>
       </c>
@@ -3671,26 +3956,29 @@
       <c r="E90" s="1">
         <v>1980</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="2">
         <v>18.87</v>
       </c>
-      <c r="G90" s="2">
+      <c r="H90" s="2">
         <v>71.95</v>
       </c>
-      <c r="H90" s="2">
+      <c r="I90" s="2">
         <v>20.16</v>
       </c>
-      <c r="I90" s="2">
+      <c r="J90" s="2">
         <v>12.43</v>
       </c>
-      <c r="J90" s="2">
+      <c r="K90" s="2">
         <v>11.01</v>
       </c>
-      <c r="K90" s="2">
+      <c r="L90" s="2">
         <v>9.77</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2249</v>
       </c>
@@ -3706,26 +3994,29 @@
       <c r="E91" s="1">
         <v>1980</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="2">
         <v>18.440000000000001</v>
       </c>
-      <c r="G91" s="2">
+      <c r="H91" s="2">
         <v>74.010000000000005</v>
       </c>
-      <c r="H91" s="2">
+      <c r="I91" s="2">
         <v>20.059999999999999</v>
       </c>
-      <c r="I91" s="2">
+      <c r="J91" s="2">
         <v>12.73</v>
       </c>
-      <c r="J91" s="2">
+      <c r="K91" s="2">
         <v>10.68</v>
       </c>
-      <c r="K91" s="2">
+      <c r="L91" s="2">
         <v>9.74</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2940</v>
       </c>
@@ -3741,26 +4032,29 @@
       <c r="E92" s="1">
         <v>1980</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="2">
         <v>15.14</v>
       </c>
-      <c r="G92" s="2">
+      <c r="H92" s="2">
         <v>70.010000000000005</v>
       </c>
-      <c r="H92" s="2">
+      <c r="I92" s="2">
         <v>17.86</v>
       </c>
-      <c r="I92" s="2">
+      <c r="J92" s="2">
         <v>10.33</v>
       </c>
-      <c r="J92" s="2">
+      <c r="K92" s="2">
         <v>8.7799999999999994</v>
       </c>
-      <c r="K92" s="2">
+      <c r="L92" s="2">
         <v>8.14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>3642</v>
       </c>
@@ -3776,26 +4070,29 @@
       <c r="E93" s="1">
         <v>1980</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="2">
         <v>17.84</v>
       </c>
-      <c r="G93" s="2">
+      <c r="H93" s="2">
         <v>71.010000000000005</v>
       </c>
-      <c r="H93" s="2">
+      <c r="I93" s="2">
         <v>19.16</v>
       </c>
-      <c r="I93" s="2">
+      <c r="J93" s="2">
         <v>11.03</v>
       </c>
-      <c r="J93" s="2">
+      <c r="K93" s="2">
         <v>10.28</v>
       </c>
-      <c r="K93" s="2">
+      <c r="L93" s="2">
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>8191</v>
       </c>
@@ -3811,26 +4108,29 @@
       <c r="E94" s="1">
         <v>1980</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="2">
         <v>19.63</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>70.41</v>
       </c>
-      <c r="H94" s="2">
+      <c r="I94" s="2">
         <v>20.81</v>
       </c>
-      <c r="I94" s="2">
+      <c r="J94" s="2">
         <v>12.53</v>
       </c>
-      <c r="J94" s="2">
+      <c r="K94" s="2">
         <v>10.86</v>
       </c>
-      <c r="K94" s="2">
+      <c r="L94" s="2">
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1019</v>
       </c>
@@ -3846,26 +4146,29 @@
       <c r="E95" s="1">
         <v>1981</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="2">
         <v>20.82</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>70.45</v>
       </c>
-      <c r="H95" s="2">
+      <c r="I95" s="2">
         <v>19.86</v>
       </c>
-      <c r="I95" s="2">
+      <c r="J95" s="2">
         <v>12.13</v>
       </c>
-      <c r="J95" s="2">
+      <c r="K95" s="2">
         <v>11.21</v>
       </c>
-      <c r="K95" s="2">
+      <c r="L95" s="2">
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1372</v>
       </c>
@@ -3881,26 +4184,29 @@
       <c r="E96" s="1">
         <v>1981</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="2">
         <v>16.64</v>
       </c>
-      <c r="G96" s="2">
+      <c r="H96" s="2">
         <v>69.010000000000005</v>
       </c>
-      <c r="H96" s="2">
+      <c r="I96" s="2">
         <v>18.16</v>
       </c>
-      <c r="I96" s="2">
+      <c r="J96" s="2">
         <v>10.43</v>
       </c>
-      <c r="J96" s="2">
+      <c r="K96" s="2">
         <v>9.48</v>
       </c>
-      <c r="K96" s="2">
+      <c r="L96" s="2">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1797</v>
       </c>
@@ -3916,26 +4222,29 @@
       <c r="E97" s="1">
         <v>1982</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="2">
         <v>16.670000000000002</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>69.45</v>
       </c>
-      <c r="H97" s="2">
+      <c r="I97" s="2">
         <v>19.21</v>
       </c>
-      <c r="I97" s="2">
+      <c r="J97" s="2">
         <v>10.53</v>
       </c>
-      <c r="J97" s="2">
+      <c r="K97" s="2">
         <v>9.31</v>
       </c>
-      <c r="K97" s="2">
+      <c r="L97" s="2">
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2378</v>
       </c>
@@ -3951,26 +4260,29 @@
       <c r="E98" s="1">
         <v>1981</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="2">
         <v>18.07</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>70.95</v>
       </c>
-      <c r="H98" s="2">
+      <c r="I98" s="2">
         <v>21.06</v>
       </c>
-      <c r="I98" s="2">
+      <c r="J98" s="2">
         <v>11.23</v>
       </c>
-      <c r="J98" s="2">
+      <c r="K98" s="2">
         <v>9.86</v>
       </c>
-      <c r="K98" s="2">
+      <c r="L98" s="2">
         <v>8.67</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>8190</v>
       </c>
@@ -3986,26 +4298,29 @@
       <c r="E99" s="1">
         <v>1981</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2">
         <v>15.6</v>
       </c>
-      <c r="G99" s="2">
+      <c r="H99" s="2">
         <v>69.47</v>
       </c>
-      <c r="H99" s="2">
+      <c r="I99" s="2">
         <v>18.36</v>
       </c>
-      <c r="I99" s="2">
+      <c r="J99" s="2">
         <v>11.23</v>
       </c>
-      <c r="J99" s="2">
+      <c r="K99" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="K99" s="2">
+      <c r="L99" s="2">
         <v>8.24</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>316</v>
       </c>
@@ -4021,26 +4336,29 @@
       <c r="E100" s="1">
         <v>1982</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="2">
         <v>17.55</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <v>67.5</v>
       </c>
-      <c r="H100" s="2">
+      <c r="I100" s="2">
         <v>19.55</v>
       </c>
-      <c r="I100" s="2">
+      <c r="J100" s="2">
         <v>10.9</v>
       </c>
-      <c r="J100" s="2">
+      <c r="K100" s="2">
         <v>9.85</v>
       </c>
-      <c r="K100" s="2">
+      <c r="L100" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>710</v>
       </c>
@@ -4056,22 +4374,25 @@
       <c r="E101" s="1">
         <v>1982</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="2">
         <v>15</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H101" s="2">
         <v>69</v>
       </c>
-      <c r="H101" s="2">
+      <c r="I101" s="2">
         <v>19</v>
       </c>
-      <c r="I101" s="2">
+      <c r="J101" s="2">
         <v>10.5</v>
       </c>
-      <c r="J101" s="2">
+      <c r="K101" s="2">
         <v>10</v>
       </c>
-      <c r="K101" s="2">
+      <c r="L101" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
